--- a/men_diaries/Diary 12 (Igor).xlsx
+++ b/men_diaries/Diary 12 (Igor).xlsx
@@ -433,6 +433,9 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
+      <c r="V4" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
@@ -693,9 +696,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="I20" s="14"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
